--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-18.xlsx
@@ -110,9 +110,6 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>BURNASORES 0.25% OINT. 30 GM</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -420,12 +417,6 @@
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>شاش معقم لاصق 10*18</t>
-  </si>
-  <si>
-    <t>18:0</t>
   </si>
   <si>
     <t>شامبو لوريال الفيفا</t>
@@ -1429,13 +1420,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1447,7 +1438,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1455,17 +1446,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1481,17 +1472,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1507,17 +1498,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1533,17 +1524,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1551,7 +1542,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1559,17 +1550,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>66</v>
+        <v>27.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1577,7 +1568,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1585,13 +1576,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>27.5</v>
+        <v>92</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1611,13 +1602,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1629,7 +1620,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1637,13 +1628,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1663,13 +1654,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1681,7 +1672,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1689,17 +1680,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1707,7 +1698,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1715,13 +1706,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1741,17 +1732,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>27</v>
+        <v>122.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1759,7 +1750,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1767,17 +1758,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>122.5</v>
+        <v>35</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1793,17 +1784,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1811,7 +1802,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1819,17 +1810,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1837,7 +1828,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1845,17 +1836,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1871,13 +1862,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1897,17 +1888,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1923,17 +1914,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1949,17 +1940,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1975,17 +1966,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2001,17 +1992,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2027,13 +2018,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2053,17 +2044,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>90</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2079,17 +2070,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>30.670000000000002</v>
+        <v>100</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2105,17 +2096,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2131,17 +2122,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2157,17 +2148,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2183,13 +2174,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2209,13 +2200,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>39</v>
+        <v>-290</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2235,13 +2226,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>-290</v>
+        <v>200</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2261,13 +2252,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2287,13 +2278,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2313,13 +2304,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2345,11 +2336,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>55</v>
+        <v>72.5</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2365,17 +2356,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>72.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2383,7 +2374,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2391,17 +2382,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>27.329999999999998</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2417,13 +2408,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2449,7 +2440,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2469,17 +2460,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>75</v>
+        <v>-57</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2495,17 +2486,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>-57</v>
+        <v>39</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2521,17 +2512,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2547,17 +2538,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2573,17 +2564,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2591,7 +2582,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2599,13 +2590,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2625,17 +2616,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>76.439999999999998</v>
+        <v>16</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2643,7 +2634,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2651,17 +2642,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2677,17 +2668,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2703,17 +2694,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2729,17 +2720,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2761,11 +2752,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2781,13 +2772,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2813,11 +2804,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2833,17 +2824,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2859,13 +2850,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>67</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2885,13 +2876,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>7.0499999999999998</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2903,7 +2894,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2911,17 +2902,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>47.670000000000002</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2937,17 +2928,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>89.099999999999994</v>
+        <v>-185</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2963,17 +2954,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>-185</v>
+        <v>71</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2989,17 +2980,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>71</v>
+        <v>45.5</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3007,7 +2998,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3015,17 +3006,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>45.5</v>
+        <v>60</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3047,7 +3038,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3067,13 +3058,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3099,11 +3090,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3119,17 +3110,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3145,13 +3136,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3171,17 +3162,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3197,13 +3188,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3223,13 +3214,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3249,17 +3240,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3267,7 +3258,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3275,17 +3266,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3293,7 +3284,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3301,17 +3292,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>12.5</v>
+        <v>224</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>122</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3327,17 +3318,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3353,13 +3344,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3379,7 +3370,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3405,13 +3396,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3423,7 +3414,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3431,13 +3422,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3457,17 +3448,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3475,7 +3466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3483,17 +3474,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3501,7 +3492,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3509,17 +3500,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>135</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3535,13 +3526,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3561,13 +3552,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3579,7 +3570,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3593,7 +3584,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>150</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3605,7 +3596,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3613,13 +3604,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3631,7 +3622,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3639,13 +3630,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>68.599999999999994</v>
+        <v>30</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3665,103 +3656,51 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" ht="24.75" customHeight="1">
-      <c r="A106" s="6">
-        <v>103</v>
-      </c>
-      <c t="s" r="B106" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="K106" s="10">
+        <v>4840.8599999999997</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="11">
         <v>143</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c t="s" r="H106" s="8">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c t="s" r="F107" s="12">
         <v>144</v>
       </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9">
-        <v>30</v>
-      </c>
-      <c r="M106" s="9"/>
-      <c t="s" r="N106" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="A107" s="6">
-        <v>104</v>
-      </c>
-      <c t="s" r="B107" s="7">
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
+      <c t="s" r="I107" s="14">
         <v>145</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c t="s" r="H107" s="8">
-        <v>144</v>
-      </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9">
-        <v>70</v>
-      </c>
-      <c r="M107" s="9"/>
-      <c t="s" r="N107" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" ht="25.5" customHeight="1">
-      <c r="K108" s="10">
-        <v>4956.8599999999997</v>
-      </c>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-    </row>
-    <row r="109" ht="17.25" customHeight="1">
-      <c t="s" r="A109" s="11">
-        <v>146</v>
-      </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c t="s" r="F109" s="12">
-        <v>147</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
-      <c t="s" r="I109" s="14">
-        <v>148</v>
-      </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
+  <mergeCells count="317">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4075,16 +4014,10 @@
     <mergeCell ref="B105:G105"/>
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="K108:N108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="I109:N109"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:N107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
